--- a/pred_ohlcv/54_21/2019-10-15 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 LOOM ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>23789.79109999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1538862.1988</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1539819.767</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1539819.767</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1528545.6246</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1302245.9555</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1316768.183</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1171958.2562</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1215312.6438</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1215851.278600001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1213542.673200001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1213542.673200001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1224742.673200001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1223430.673200001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1195003.3661</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1195003.3661</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1198882.7907</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1198882.7907</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1198982.7907</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1263772.524500001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1405626.9105</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1405616.9105</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1405616.9105</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1406398.058200001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1460099.4889</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1456819.329300001</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1456819.329300001</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1448506.880000001</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1458157.775800001</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1086276.519972204</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1058876.519972204</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1049013.346972204</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1045534.430172204</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1019472.041472204</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1020901.722872204</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1241928.078172204</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1241928.078172204</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1275332.117372204</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1744551.073072204</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1642677.700672204</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1645561.701172204</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1644136.216672204</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1626263.654872204</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1629672.103472204</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1616205.535072204</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1616155.535072204</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1530024.889172204</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1535495.889072204</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1571041.308172204</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1541382.542672204</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1545477.815172204</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1563987.343672204</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1547607.343672204</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1550408.879672204</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1641020.112172204</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1556388.852872204</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1632671.872472204</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1609569.872472204</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1610202.740972204</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1469849.696972204</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1471264.301672204</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1471264.301672204</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1470905.301672204</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1421746.487172204</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1364891.270972204</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1373991.270972204</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1373891.270972204</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1371962.016772204</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1333939.711772204</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1383552.799972204</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1383552.799972204</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1372539.323572204</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1374457.647172204</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1374457.647172204</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1364457.647172204</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1365924.435072204</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1358292.552972204</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1290295.885772204</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1133785.124272204</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-338203.9210481117</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-264589.7374481117</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-264589.7374481117</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-348704.4738481117</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-328167.0862815543</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-15 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 LOOM ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>23789.79109999998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1538862.1988</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1539819.767</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1539819.767</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1528545.6246</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1302245.9555</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1316778.183</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1316768.183</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1327644.3569</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1273730.9092</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1171958.2562</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1215312.6438</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1215851.278600001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1213542.673200001</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1213542.673200001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1224742.673200001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1223430.673200001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1195003.3661</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1195003.3661</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1198882.7907</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1198882.7907</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1198982.7907</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1164887.227600001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1183238.607800001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1256461.524500001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1263772.524500001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1305626.9105</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1085600.707072204</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1086276.519972204</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1058876.519972204</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1037786.281072204</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1049013.346972204</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1045534.430172204</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1019472.041472204</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1020901.722872204</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1241928.078172204</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1241928.078172204</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1275332.117372204</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1546879.073172204</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1744551.073072204</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1643422.073072204</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1664663.305872204</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1668253.305872204</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1596331.865972204</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1642677.700672204</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1645561.701172204</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1644136.216672204</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1626263.654872204</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1629672.103472204</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1615094.535072204</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1616205.535072204</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1616155.535072204</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1596454.535072204</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1597989.150372204</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1530024.889172204</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1535495.889072204</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1571041.308172204</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1541382.542672204</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1541382.542672204</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1545477.815172204</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1563987.343672204</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1547607.343672204</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1552108.879672204</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1552108.879672204</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1550408.879672204</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1551725.879672204</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1537625.879672204</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1602327.631972204</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1598868.179772204</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1630468.179772204</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1629081.223172204</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1629081.223172204</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1695838.205372204</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1695221.607972204</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1670157.201672204</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1698547.488572204</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1641020.112172204</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1641020.112172204</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1644572.675972204</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1644572.675972204</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1658388.852872204</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1556388.852872204</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1632671.872472204</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1609569.872472204</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1610202.740972204</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1606583.829772204</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1606583.829772204</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1552536.616772204</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1553576.480772204</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1542955.686472204</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1482355.686472204</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1482355.686472204</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1482355.686472204</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1482900.838672204</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1482890.838672204</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1570293.494372204</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1478511.214272204</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1479649.696972204</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1469849.696972204</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1469849.696972204</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1471364.301672204</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1471264.301672204</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1471264.301672204</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1471164.301672204</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1463264.301672204</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1470905.301672204</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1414022.301672204</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1421746.487172204</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1380238.311772204</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1380138.311772204</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1364991.270972204</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1364891.270972204</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1373991.270972204</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1373891.270972204</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1371962.016772204</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1333939.711772204</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1383552.799972204</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1383552.799972204</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1372539.323572204</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1374457.647172204</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1374457.647172204</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1364457.647172204</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1365924.435072204</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1358292.552972204</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1290295.885772204</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1133785.124272204</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-259606.3732481117</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-338203.9210481117</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-264589.7374481117</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-264589.7374481117</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-348704.4738481117</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-360470.3619481117</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-385020.5259481117</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-328167.0862815543</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
